--- a/water permeability test.xlsx
+++ b/water permeability test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang9\Documents\GitHub\hte-data-processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hte-data-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8F8C8-34E4-43FC-ADE0-3429E6E3B244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9277A607-F2FC-491D-B3B6-E14159E48E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <t>LMH</t>
   </si>
   <si>
-    <t>12% PSF in PolarClean</t>
-  </si>
-  <si>
-    <t>15% PSF in PolarClean</t>
-  </si>
-  <si>
-    <t>17% PSF in PolarClean</t>
-  </si>
-  <si>
     <t>Water Flux (without filter)</t>
   </si>
   <si>
     <t>We didn't have filter with the UF setup earlier, when we tested the 17% PSF one</t>
+  </si>
+  <si>
+    <t>12% PSf</t>
+  </si>
+  <si>
+    <t>15% PSf</t>
+  </si>
+  <si>
+    <t>17% PSf</t>
   </si>
 </sst>
 </file>
@@ -121,6 +121,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PSf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Membrane Water Permeability</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -152,7 +182,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1171634743237438"/>
+          <c:y val="0.14557363897205461"/>
+          <c:w val="0.84689794958166564"/>
+          <c:h val="0.62003729379899664"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -165,7 +205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12% PSF in PolarClean</c:v>
+                  <c:v>12% PSf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -210,8 +250,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11031060560535953"/>
-                  <c:y val="9.974786866675682E-2"/>
+                  <c:x val="0.10942983090583938"/>
+                  <c:y val="0.1429505643424058"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -336,7 +376,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15% PSF in PolarClean</c:v>
+                  <c:v>15% PSf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -381,8 +421,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11401667659104112"/>
-                  <c:y val="-2.0994519524445223E-2"/>
+                  <c:x val="-0.11510398417601822"/>
+                  <c:y val="2.9363540586708824E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -507,7 +547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17% PSF in PolarClean</c:v>
+                  <c:v>17% PSf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -701,6 +741,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure (bar)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -764,6 +859,86 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water Flux (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>L/hr/m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" baseline="30000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1461,15 +1636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1183297</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
+      <xdr:colOff>985469</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>373673</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1763,7 +1938,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,16 +1977,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
